--- a/Finanzas.xlsx
+++ b/Finanzas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Power BI\Proyecto 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Especializacion\Clases\Semestre II\Modelo y persistencia de datos\Presentacion Business Intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99558217-5CDB-4539-8680-CDA5314E853B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1117B541-3ADA-4ED6-9C56-4B61D6FE7C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gastos!$A$3:$C$219</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$3:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$1:$C$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="41">
   <si>
     <t>Fecha</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Categoria</t>
-  </si>
-  <si>
-    <t>INGRESOS</t>
   </si>
   <si>
     <t>PRESUPUESTO GASTOS</t>
@@ -187,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +206,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,16 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -283,7 +271,7 @@
       <numFmt numFmtId="164" formatCode="m/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -299,72 +287,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>869208</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12859</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Decorative Element&#10;">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="114300" y="30480"/>
-          <a:ext cx="754908" cy="744379"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -430,7 +352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -496,7 +418,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -912,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,9 +852,582 @@
     <col min="8" max="25" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44166</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44136</v>
+      </c>
+      <c r="C5">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C6">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C7">
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44075</v>
+      </c>
+      <c r="C8">
+        <v>9931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44075</v>
+      </c>
+      <c r="C9">
+        <v>12904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44044</v>
+      </c>
+      <c r="C10">
+        <v>9958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44044</v>
+      </c>
+      <c r="C11">
+        <v>12118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C12">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C13">
+        <v>11996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43983</v>
+      </c>
+      <c r="C14">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43983</v>
+      </c>
+      <c r="C15">
+        <v>12082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43952</v>
+      </c>
+      <c r="C16">
+        <v>10124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43952</v>
+      </c>
+      <c r="C17">
+        <v>11648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43922</v>
+      </c>
+      <c r="C18">
+        <v>10133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43922</v>
+      </c>
+      <c r="C19">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43891</v>
+      </c>
+      <c r="C20">
+        <v>10096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43891</v>
+      </c>
+      <c r="C21">
+        <v>10562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43862</v>
+      </c>
+      <c r="C22">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43862</v>
+      </c>
+      <c r="C23">
+        <v>10478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43831</v>
+      </c>
+      <c r="C24">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43831</v>
+      </c>
+      <c r="C25">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43800</v>
+      </c>
+      <c r="C26">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43800</v>
+      </c>
+      <c r="C27">
+        <v>10362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43770</v>
+      </c>
+      <c r="C28">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43770</v>
+      </c>
+      <c r="C29">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43739</v>
+      </c>
+      <c r="C30">
+        <v>9977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43739</v>
+      </c>
+      <c r="C31">
+        <v>9564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43709</v>
+      </c>
+      <c r="C32">
+        <v>9912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43709</v>
+      </c>
+      <c r="C33">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43678</v>
+      </c>
+      <c r="C34">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43678</v>
+      </c>
+      <c r="C35">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43647</v>
+      </c>
+      <c r="C36">
+        <v>9934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43647</v>
+      </c>
+      <c r="C37">
+        <v>8754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43617</v>
+      </c>
+      <c r="C38">
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43617</v>
+      </c>
+      <c r="C39">
+        <v>8592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43586</v>
+      </c>
+      <c r="C40">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43586</v>
+      </c>
+      <c r="C41">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C42">
+        <v>10098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C43">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43525</v>
+      </c>
+      <c r="C44">
+        <v>10143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43525</v>
+      </c>
+      <c r="C45">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43497</v>
+      </c>
+      <c r="C46">
+        <v>10138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43497</v>
+      </c>
+      <c r="C47">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C48">
+        <v>10222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C49">
+        <v>8250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y219"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="25" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -958,612 +1453,6 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44166</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>10078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44166</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>13888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44136</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44136</v>
-      </c>
-      <c r="C7">
-        <v>13714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C8">
-        <v>10041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C9">
-        <v>14008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44075</v>
-      </c>
-      <c r="C10">
-        <v>9931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44075</v>
-      </c>
-      <c r="C11">
-        <v>12904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44044</v>
-      </c>
-      <c r="C12">
-        <v>9958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44044</v>
-      </c>
-      <c r="C13">
-        <v>12118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C14">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C15">
-        <v>11996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43983</v>
-      </c>
-      <c r="C16">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43983</v>
-      </c>
-      <c r="C17">
-        <v>12082</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>43952</v>
-      </c>
-      <c r="C18">
-        <v>10124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>43952</v>
-      </c>
-      <c r="C19">
-        <v>11648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>43922</v>
-      </c>
-      <c r="C20">
-        <v>10133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3">
-        <v>43922</v>
-      </c>
-      <c r="C21">
-        <v>11050</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3">
-        <v>43891</v>
-      </c>
-      <c r="C22">
-        <v>10096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3">
-        <v>43891</v>
-      </c>
-      <c r="C23">
-        <v>10562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3">
-        <v>43862</v>
-      </c>
-      <c r="C24">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3">
-        <v>43862</v>
-      </c>
-      <c r="C25">
-        <v>10478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3">
-        <v>43831</v>
-      </c>
-      <c r="C26">
-        <v>10039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3">
-        <v>43831</v>
-      </c>
-      <c r="C27">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="3">
-        <v>43800</v>
-      </c>
-      <c r="C28">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3">
-        <v>43800</v>
-      </c>
-      <c r="C29">
-        <v>10362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3">
-        <v>43770</v>
-      </c>
-      <c r="C30">
-        <v>9998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3">
-        <v>43770</v>
-      </c>
-      <c r="C31">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="3">
-        <v>43739</v>
-      </c>
-      <c r="C32">
-        <v>9977</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3">
-        <v>43739</v>
-      </c>
-      <c r="C33">
-        <v>9564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3">
-        <v>43709</v>
-      </c>
-      <c r="C34">
-        <v>9912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3">
-        <v>43709</v>
-      </c>
-      <c r="C35">
-        <v>8954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="3">
-        <v>43678</v>
-      </c>
-      <c r="C36">
-        <v>9955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="3">
-        <v>43678</v>
-      </c>
-      <c r="C37">
-        <v>9110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="3">
-        <v>43647</v>
-      </c>
-      <c r="C38">
-        <v>9934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3">
-        <v>43647</v>
-      </c>
-      <c r="C39">
-        <v>8754</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="3">
-        <v>43617</v>
-      </c>
-      <c r="C40">
-        <v>9984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="3">
-        <v>43617</v>
-      </c>
-      <c r="C41">
-        <v>8592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="3">
-        <v>43586</v>
-      </c>
-      <c r="C42">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3">
-        <v>43586</v>
-      </c>
-      <c r="C43">
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3">
-        <v>43556</v>
-      </c>
-      <c r="C44">
-        <v>10098</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3">
-        <v>43556</v>
-      </c>
-      <c r="C45">
-        <v>8792</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="3">
-        <v>43525</v>
-      </c>
-      <c r="C46">
-        <v>10143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="3">
-        <v>43525</v>
-      </c>
-      <c r="C47">
-        <v>9178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="3">
-        <v>43497</v>
-      </c>
-      <c r="C48">
-        <v>10138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="3">
-        <v>43497</v>
-      </c>
-      <c r="C49">
-        <v>8444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="3">
-        <v>43466</v>
-      </c>
-      <c r="C50">
-        <v>10222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="3">
-        <v>43466</v>
-      </c>
-      <c r="C51">
-        <v>8250</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Y1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y219"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
-    <col min="7" max="25" width="5.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3987,33 +3876,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4028,7 +3917,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -4039,7 +3928,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -4050,7 +3939,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -4061,7 +3950,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -4072,7 +3961,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -4083,7 +3972,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -4094,7 +3983,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>10000</v>
@@ -4105,7 +3994,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>10000</v>
@@ -4116,7 +4005,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -4160,7 +4049,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -4171,7 +4060,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>10000</v>
@@ -4182,7 +4071,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>10000</v>
@@ -4193,7 +4082,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>10000</v>
@@ -4204,7 +4093,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>10000</v>
@@ -4215,7 +4104,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>10000</v>
@@ -4226,7 +4115,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>10000</v>
@@ -4237,7 +4126,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>10000</v>
@@ -4248,7 +4137,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>10000</v>
@@ -4259,7 +4148,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -4270,7 +4159,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>10000</v>
@@ -4281,7 +4170,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>10000</v>
@@ -4319,64 +4208,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>2</v>
@@ -4388,40 +4277,40 @@
         <v>4</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
